--- a/Data/Dados preliminares RAW/Estatísticas Docker/Docker-0-CPU-Testes.xlsx
+++ b/Data/Dados preliminares RAW/Estatísticas Docker/Docker-0-CPU-Testes.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nunomorais/Documents/Projects/Investigation_git/ToyApp/Data/Dados preliminares RAW/Estatísticas Docker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18020" windowHeight="22260" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Docker-0" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Docker-0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -22,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="282">
   <si>
-    <t xml:space="preserve">Time</t>
+    <t>Time</t>
   </si>
   <si>
     <t xml:space="preserve"> Usage for CentOS7-Docker-0</t>
@@ -37,864 +47,846 @@
     <t xml:space="preserve"> Usage in MHz for 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:53:20 GMT+0100 2018</t>
+    <t>Tue May 15 18:53:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.93</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:53:40 GMT+0100 2018</t>
+    <t>Tue May 15 18:53:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:54:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:54:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:54:20 GMT+0100 2018</t>
+    <t>Tue May 15 18:54:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.64</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:54:40 GMT+0100 2018</t>
+    <t>Tue May 15 18:54:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:55:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:55:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.03</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:55:20 GMT+0100 2018</t>
+    <t>Tue May 15 18:55:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:55:40 GMT+0100 2018</t>
+    <t>Tue May 15 18:55:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.44</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:56:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:56:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.15</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:56:20 GMT+0100 2018</t>
+    <t>Tue May 15 18:56:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.82</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:56:40 GMT+0100 2018</t>
+    <t>Tue May 15 18:56:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.14</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:57:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:57:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.19</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:57:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 18:57:40 GMT+0100 2018</t>
+    <t>Tue May 15 18:57:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 18:57:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.11</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:58:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:58:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:58:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 18:58:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 18:59:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 18:59:20 GMT+0100 2018</t>
+    <t>Tue May 15 18:58:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 18:58:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 18:59:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 18:59:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 18:59:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:00:00 GMT+0100 2018</t>
+    <t>Tue May 15 18:59:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:00:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.12</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:00:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:00:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:00:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:00:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.94</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:01:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:01:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:01:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:02:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:01:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:01:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:01:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:02:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:02:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:02:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:02:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:02:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 9.86</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:03:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:03:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 37.69</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:03:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:03:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.7</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:03:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:03:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.86</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:04:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:04:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.92</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:04:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:04:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 3.53</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:04:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:04:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.68</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:05:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:05:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.86</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:05:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:05:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:05:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:06:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:06:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:05:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:06:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:06:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:06:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:06:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:07:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:07:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.84</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:07:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:07:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.78</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:07:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:07:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:08:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:08:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:08:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:08:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:08:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:08:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:09:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:09:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.76</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:09:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:09:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:09:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:09:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:10:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:10:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:10:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:10:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:10:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:10:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.81</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:11:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:11:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:11:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:11:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:11:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:11:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.99</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:12:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:12:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:12:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:12:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:12:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:12:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:13:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:13:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:13:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:13:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:13:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:13:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.87</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:14:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:14:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:14:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:14:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.14</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:14:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:14:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 44.83</t>
   </si>
   <si>
-    <t xml:space="preserve">1º Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:15:00 GMT+0100 2018</t>
+    <t>1º Teste</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:15:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:15:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:15:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.26</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:15:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:15:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 4.62</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:16:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:16:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 5.56</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:16:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:16:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.78</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:16:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:17:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:17:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:17:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:18:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:18:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:18:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:19:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:19:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:16:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:17:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:17:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:17:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:18:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:18:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:18:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:19:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:19:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.88</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:19:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:19:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.91</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:20:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:20:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.82</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:20:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:20:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:21:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:21:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:21:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:22:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:22:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:22:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:23:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:23:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:20:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:20:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:21:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:21:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:21:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:22:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:22:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:22:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:23:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:23:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 23.51</t>
   </si>
   <si>
-    <t xml:space="preserve">3º Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:23:40 GMT+0100 2018</t>
+    <t>3º Teste</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:23:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 36.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:24:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:24:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 54.52</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:24:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:24:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 37.83</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:24:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:24:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 13.62</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:25:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:25:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 12.53</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:25:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:25:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 20.9</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:25:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:25:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.96</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:26:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:26:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.07</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:26:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:26:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:26:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:26:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:27:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:27:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.59</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:27:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:27:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:28:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:28:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:28:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:29:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:27:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:27:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:28:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:28:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:28:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:29:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.96</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:29:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:29:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:30:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:30:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:29:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:29:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:30:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:30:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.13</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:30:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:31:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:31:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:31:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:32:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:32:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:30:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:31:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:31:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:31:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:32:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:32:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 30.47</t>
   </si>
   <si>
-    <t xml:space="preserve">5º Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:32:40 GMT+0100 2018</t>
+    <t>5º Teste</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:32:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 41.38</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:33:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:33:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 48.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:33:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:33:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 66.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:33:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:33:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 86.06</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:34:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:34:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 41.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:34:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:34:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 27.08</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:34:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:34:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 23.28</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:35:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:35:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 40.94</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:35:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:35:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 62.4</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:35:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:35:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:36:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:36:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.35</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:36:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:36:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:36:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:36:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.29</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:37:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:37:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.43</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:37:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:37:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.36</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:37:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:38:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:37:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:38:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:38:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:38:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:38:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:39:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:38:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:39:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.32</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:39:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:39:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:40:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:40:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:39:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:39:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:40:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:40:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.24</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:40:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:41:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:40:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:41:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.28</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:41:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:41:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.41</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:41:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:42:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:41:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:42:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.27</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:42:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:42:20 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:42:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:43:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:43:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:43:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:44:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:42:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:43:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:43:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:43:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:44:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.26</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:44:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:44:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:45:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:44:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:44:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:45:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:45:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:45:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:46:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:45:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:45:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:46:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.18</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:50:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:50:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.09</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:50:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:50:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:50:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:50:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:51:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:51:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:51:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:52:00 GMT+0100 2018</t>
+    <t>Tue May 15 19:51:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:51:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:51:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:52:00 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:52:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:52:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:53:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:53:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:53:40 GMT+0100 2018</t>
+    <t>Tue May 15 19:52:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:52:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:53:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:53:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:53:40 GMT+0100 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> 1.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue May 15 19:54:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:54:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:54:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:55:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:55:20 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:55:40 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:56:00 GMT+0100 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tue May 15 19:56:20 GMT+0100 2018</t>
+    <t>Tue May 15 19:54:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:54:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:54:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:55:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:55:20 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:55:40 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:56:00 GMT+0100 2018</t>
+  </si>
+  <si>
+    <t>Tue May 15 19:56:20 GMT+0100 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -906,7 +898,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -914,3199 +906,3429 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G94" activeCellId="0" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="224" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>57</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>26</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>78</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>32</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>59</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>49</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>49</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>13</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>69</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>23</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>55</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>15</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>87</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>41</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>54</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>18</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>57</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>19</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>54</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>53</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>17</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>52</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>18</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>26</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>44</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>55</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>46</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>26</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>54</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>48</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>45</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>47</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>17</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>55</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26">
         <v>17</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>45</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>52</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28">
         <v>18</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>48</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29">
         <v>16</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>472</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30">
         <v>216</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>237</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>1804</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31">
         <v>877</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>854</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>177</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32">
         <v>79</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>84</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>185</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33">
         <v>90</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>235</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34">
         <v>107</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>113</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>169</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35">
         <v>80</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>80</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>80</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36">
         <v>32</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>41</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>41</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37">
         <v>16</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>43</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>19</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>18</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>44</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>47</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>26</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>47</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41">
         <v>18</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>22</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>37</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42">
         <v>16</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>40</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43">
         <v>16</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>16</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>37</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44">
         <v>16</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>40</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45">
         <v>16</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>18</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>38</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46">
         <v>16</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>43</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47">
         <v>17</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>18</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>35</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48">
         <v>14</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>36</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49">
         <v>15</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E49">
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>37</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50">
         <v>15</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E50">
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>38</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E51">
         <v>18</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>38</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52">
         <v>14</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52">
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>40</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53">
         <v>17</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53">
         <v>18</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>38</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54">
         <v>16</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E54">
         <v>16</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>37</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55">
         <v>16</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E55">
         <v>16</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>41</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56">
         <v>16</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56">
         <v>18</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>99</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>47</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57">
         <v>17</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E57">
         <v>21</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>40</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58">
         <v>18</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E58">
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59">
         <v>46</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59">
         <v>21</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E59">
         <v>18</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60">
         <v>43</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60">
         <v>18</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E60">
         <v>18</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61">
         <v>38</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D61">
         <v>16</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E61">
         <v>16</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>77</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62">
         <v>40</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D62">
         <v>17</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62">
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63">
         <v>41</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D63">
         <v>17</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63">
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64">
         <v>39</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D64">
         <v>17</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E64">
         <v>16</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65">
         <v>102</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65">
         <v>28</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E65">
         <v>67</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66">
         <v>2146</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D66">
         <v>984</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E66">
         <v>1102</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="F66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>114</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>115</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67">
         <v>193</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67">
         <v>94</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67">
         <v>90</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68">
         <v>204</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68">
         <v>83</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68">
         <v>105</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69">
         <v>221</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69">
         <v>101</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E69">
         <v>106</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70">
         <v>266</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70">
         <v>115</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70">
         <v>137</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>122</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71">
         <v>85</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71">
         <v>38</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71">
         <v>42</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72">
         <v>41</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72">
         <v>16</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E72">
         <v>20</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73">
         <v>44</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73">
         <v>16</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E73">
         <v>20</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>126</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>107</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74">
         <v>41</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74">
         <v>17</v>
       </c>
-      <c r="E74" s="0" t="n">
+      <c r="E74">
         <v>19</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>127</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75">
         <v>46</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75">
         <v>17</v>
       </c>
-      <c r="E75" s="0" t="n">
+      <c r="E75">
         <v>23</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>128</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76">
         <v>44</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76">
         <v>18</v>
       </c>
-      <c r="E76" s="0" t="n">
+      <c r="E76">
         <v>20</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77">
         <v>42</v>
       </c>
-      <c r="D77" s="0" t="n">
+      <c r="D77">
         <v>18</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77">
         <v>18</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
         <v>130</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78">
         <v>38</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78">
         <v>13</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78">
         <v>19</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>131</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79">
         <v>41</v>
       </c>
-      <c r="D79" s="0" t="n">
+      <c r="D79">
         <v>19</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79">
         <v>16</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
         <v>132</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80">
         <v>42</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80">
         <v>18</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80">
         <v>16</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81">
         <v>43</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81">
         <v>20</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81">
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82">
         <v>39</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82">
         <v>18</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82">
         <v>16</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83">
         <v>38</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83">
         <v>18</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83">
         <v>16</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84">
         <v>40</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84">
         <v>19</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84">
         <v>15</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>103</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85">
         <v>42</v>
       </c>
-      <c r="D85" s="0" t="n">
+      <c r="D85">
         <v>19</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85">
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86">
         <v>38</v>
       </c>
-      <c r="D86" s="0" t="n">
+      <c r="D86">
         <v>18</v>
       </c>
-      <c r="E86" s="0" t="n">
+      <c r="E86">
         <v>14</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87">
         <v>41</v>
       </c>
-      <c r="D87" s="0" t="n">
+      <c r="D87">
         <v>21</v>
       </c>
-      <c r="E87" s="0" t="n">
+      <c r="E87">
         <v>15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>133</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88">
         <v>42</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="D88">
         <v>20</v>
       </c>
-      <c r="E88" s="0" t="n">
+      <c r="E88">
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89">
         <v>39</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89">
         <v>19</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89">
         <v>14</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90">
         <v>41</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90">
         <v>17</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90">
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>146</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91">
         <v>43</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91">
         <v>18</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91">
         <v>19</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92">
         <v>1125</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92">
         <v>526</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92">
         <v>559</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>150</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>151</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93">
         <v>1761</v>
       </c>
-      <c r="D93" s="0" t="n">
+      <c r="D93">
         <v>827</v>
       </c>
-      <c r="E93" s="0" t="n">
+      <c r="E93">
         <v>854</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94">
         <v>2610</v>
       </c>
-      <c r="D94" s="0" t="n">
+      <c r="D94">
         <v>1261</v>
       </c>
-      <c r="E94" s="0" t="n">
+      <c r="E94">
         <v>1293</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>154</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>155</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95">
         <v>1811</v>
       </c>
-      <c r="D95" s="0" t="n">
+      <c r="D95">
         <v>896</v>
       </c>
-      <c r="E95" s="0" t="n">
+      <c r="E95">
         <v>891</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96">
         <v>652</v>
       </c>
-      <c r="D96" s="0" t="n">
+      <c r="D96">
         <v>271</v>
       </c>
-      <c r="E96" s="0" t="n">
+      <c r="E96">
         <v>352</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>158</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97">
         <v>600</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>292</v>
       </c>
-      <c r="E97" s="0" t="n">
+      <c r="E97">
         <v>266</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="F97" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>161</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98">
         <v>1000</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>486</v>
       </c>
-      <c r="E98" s="0" t="n">
+      <c r="E98">
         <v>482</v>
       </c>
-      <c r="F98" s="0" t="s">
+      <c r="F98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>162</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99">
         <v>93</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>32</v>
       </c>
-      <c r="E99" s="0" t="n">
+      <c r="E99">
         <v>54</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>164</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100">
         <v>51</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>22</v>
       </c>
-      <c r="E100" s="0" t="n">
+      <c r="E100">
         <v>24</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>166</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101">
         <v>54</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>24</v>
       </c>
-      <c r="E101" s="0" t="n">
+      <c r="E101">
         <v>22</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>167</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>168</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102">
         <v>52</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>21</v>
       </c>
-      <c r="E102" s="0" t="n">
+      <c r="E102">
         <v>20</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>169</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>170</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103">
         <v>76</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>26</v>
       </c>
-      <c r="E103" s="0" t="n">
+      <c r="E103">
         <v>41</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>171</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>168</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104">
         <v>52</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>20</v>
       </c>
-      <c r="E104" s="0" t="n">
+      <c r="E104">
         <v>25</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>172</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105">
         <v>48</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>17</v>
       </c>
-      <c r="E105" s="0" t="n">
+      <c r="E105">
         <v>26</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106">
         <v>45</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>18</v>
       </c>
-      <c r="E106" s="0" t="n">
+      <c r="E106">
         <v>21</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>174</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107">
         <v>47</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>15</v>
       </c>
-      <c r="E107" s="0" t="n">
+      <c r="E107">
         <v>26</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>175</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108">
         <v>50</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>17</v>
       </c>
-      <c r="E108" s="0" t="n">
+      <c r="E108">
         <v>25</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109">
         <v>46</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>18</v>
       </c>
-      <c r="E109" s="0" t="n">
+      <c r="E109">
         <v>23</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" t="s">
         <v>165</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110">
         <v>51</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>19</v>
       </c>
-      <c r="E110" s="0" t="n">
+      <c r="E110">
         <v>27</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
         <v>179</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111">
         <v>57</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>21</v>
       </c>
-      <c r="E111" s="0" t="n">
+      <c r="E111">
         <v>28</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112">
         <v>51</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>17</v>
       </c>
-      <c r="E112" s="0" t="n">
+      <c r="E112">
         <v>28</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
         <v>181</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>182</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113">
         <v>54</v>
       </c>
-      <c r="D113" s="0" t="n">
+      <c r="D113">
         <v>21</v>
       </c>
-      <c r="E113" s="0" t="n">
+      <c r="E113">
         <v>27</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
         <v>183</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114">
         <v>50</v>
       </c>
-      <c r="D114" s="0" t="n">
+      <c r="D114">
         <v>24</v>
       </c>
-      <c r="E114" s="0" t="n">
+      <c r="E114">
         <v>20</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
         <v>184</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115">
         <v>49</v>
       </c>
-      <c r="D115" s="0" t="n">
+      <c r="D115">
         <v>21</v>
       </c>
-      <c r="E115" s="0" t="n">
+      <c r="E115">
         <v>21</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116">
         <v>52</v>
       </c>
-      <c r="D116" s="0" t="n">
+      <c r="D116">
         <v>22</v>
       </c>
-      <c r="E116" s="0" t="n">
+      <c r="E116">
         <v>24</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117">
         <v>51</v>
       </c>
-      <c r="D117" s="0" t="n">
+      <c r="D117">
         <v>22</v>
       </c>
-      <c r="E117" s="0" t="n">
+      <c r="E117">
         <v>23</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>187</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118">
         <v>48</v>
       </c>
-      <c r="D118" s="0" t="n">
+      <c r="D118">
         <v>20</v>
       </c>
-      <c r="E118" s="0" t="n">
+      <c r="E118">
         <v>24</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119">
         <v>1459</v>
       </c>
-      <c r="D119" s="0" t="n">
+      <c r="D119">
         <v>726</v>
       </c>
-      <c r="E119" s="0" t="n">
+      <c r="E119">
         <v>681</v>
       </c>
-      <c r="F119" s="0" t="s">
+      <c r="F119" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>191</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120">
         <v>1981</v>
       </c>
-      <c r="D120" s="0" t="n">
+      <c r="D120">
         <v>925</v>
       </c>
-      <c r="E120" s="0" t="n">
+      <c r="E120">
         <v>997</v>
       </c>
-      <c r="F120" s="0" t="s">
+      <c r="F120" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121">
         <v>2332</v>
       </c>
-      <c r="D121" s="0" t="n">
+      <c r="D121">
         <v>1072</v>
       </c>
-      <c r="E121" s="0" t="n">
+      <c r="E121">
         <v>1180</v>
       </c>
-      <c r="F121" s="0" t="s">
+      <c r="F121" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
         <v>195</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" t="s">
         <v>196</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122">
         <v>3198</v>
       </c>
-      <c r="D122" s="0" t="n">
+      <c r="D122">
         <v>1551</v>
       </c>
-      <c r="E122" s="0" t="n">
+      <c r="E122">
         <v>1562</v>
       </c>
-      <c r="F122" s="0" t="s">
+      <c r="F122" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" t="s">
         <v>198</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123">
         <v>4120</v>
       </c>
-      <c r="D123" s="0" t="n">
+      <c r="D123">
         <v>2066</v>
       </c>
-      <c r="E123" s="0" t="n">
+      <c r="E123">
         <v>1986</v>
       </c>
-      <c r="F123" s="0" t="s">
+      <c r="F123" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
         <v>199</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" t="s">
         <v>200</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124">
         <v>1973</v>
       </c>
-      <c r="D124" s="0" t="n">
+      <c r="D124">
         <v>906</v>
       </c>
-      <c r="E124" s="0" t="n">
+      <c r="E124">
         <v>1030</v>
       </c>
-      <c r="F124" s="0" t="s">
+      <c r="F124" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
         <v>201</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" t="s">
         <v>202</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125">
         <v>1296</v>
       </c>
-      <c r="D125" s="0" t="n">
+      <c r="D125">
         <v>625</v>
       </c>
-      <c r="E125" s="0" t="n">
+      <c r="E125">
         <v>610</v>
       </c>
-      <c r="F125" s="0" t="s">
+      <c r="F125" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
         <v>203</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" t="s">
         <v>204</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126">
         <v>1114</v>
       </c>
-      <c r="D126" s="0" t="n">
+      <c r="D126">
         <v>531</v>
       </c>
-      <c r="E126" s="0" t="n">
+      <c r="E126">
         <v>523</v>
       </c>
-      <c r="F126" s="0" t="s">
+      <c r="F126" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
         <v>205</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" t="s">
         <v>206</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127">
         <v>1960</v>
       </c>
-      <c r="D127" s="0" t="n">
+      <c r="D127">
         <v>945</v>
       </c>
-      <c r="E127" s="0" t="n">
+      <c r="E127">
         <v>960</v>
       </c>
-      <c r="F127" s="0" t="s">
+      <c r="F127" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
         <v>207</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128">
         <v>2987</v>
       </c>
-      <c r="D128" s="0" t="n">
+      <c r="D128">
         <v>1471</v>
       </c>
-      <c r="E128" s="0" t="n">
+      <c r="E128">
         <v>1458</v>
       </c>
-      <c r="F128" s="0" t="s">
+      <c r="F128" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
         <v>209</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" t="s">
         <v>210</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129">
         <v>112</v>
       </c>
-      <c r="D129" s="0" t="n">
+      <c r="D129">
         <v>53</v>
       </c>
-      <c r="E129" s="0" t="n">
+      <c r="E129">
         <v>51</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
         <v>211</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" t="s">
         <v>212</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130">
         <v>64</v>
       </c>
-      <c r="D130" s="0" t="n">
+      <c r="D130">
         <v>25</v>
       </c>
-      <c r="E130" s="0" t="n">
+      <c r="E130">
         <v>31</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
         <v>213</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" t="s">
         <v>214</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131">
         <v>62</v>
       </c>
-      <c r="D131" s="0" t="n">
+      <c r="D131">
         <v>28</v>
       </c>
-      <c r="E131" s="0" t="n">
+      <c r="E131">
         <v>28</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
         <v>215</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132">
         <v>62</v>
       </c>
-      <c r="D132" s="0" t="n">
+      <c r="D132">
         <v>27</v>
       </c>
-      <c r="E132" s="0" t="n">
+      <c r="E132">
         <v>28</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" t="s">
         <v>218</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133">
         <v>68</v>
       </c>
-      <c r="D133" s="0" t="n">
+      <c r="D133">
         <v>30</v>
       </c>
-      <c r="E133" s="0" t="n">
+      <c r="E133">
         <v>28</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
         <v>219</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" t="s">
         <v>220</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134">
         <v>65</v>
       </c>
-      <c r="D134" s="0" t="n">
+      <c r="D134">
         <v>28</v>
       </c>
-      <c r="E134" s="0" t="n">
+      <c r="E134">
         <v>32</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
         <v>221</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" t="s">
         <v>216</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135">
         <v>61</v>
       </c>
-      <c r="D135" s="0" t="n">
+      <c r="D135">
         <v>27</v>
       </c>
-      <c r="E135" s="0" t="n">
+      <c r="E135">
         <v>27</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
         <v>222</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136">
         <v>62</v>
       </c>
-      <c r="D136" s="0" t="n">
+      <c r="D136">
         <v>28</v>
       </c>
-      <c r="E136" s="0" t="n">
+      <c r="E136">
         <v>28</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
         <v>224</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" t="s">
         <v>225</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137">
         <v>59</v>
       </c>
-      <c r="D137" s="0" t="n">
+      <c r="D137">
         <v>24</v>
       </c>
-      <c r="E137" s="0" t="n">
+      <c r="E137">
         <v>29</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" t="s">
         <v>212</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138">
         <v>64</v>
       </c>
-      <c r="D138" s="0" t="n">
+      <c r="D138">
         <v>27</v>
       </c>
-      <c r="E138" s="0" t="n">
+      <c r="E138">
         <v>29</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
         <v>227</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" t="s">
         <v>228</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139">
         <v>63</v>
       </c>
-      <c r="D139" s="0" t="n">
+      <c r="D139">
         <v>25</v>
       </c>
-      <c r="E139" s="0" t="n">
+      <c r="E139">
         <v>32</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
         <v>229</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" t="s">
         <v>223</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140">
         <v>63</v>
       </c>
-      <c r="D140" s="0" t="n">
+      <c r="D140">
         <v>24</v>
       </c>
-      <c r="E140" s="0" t="n">
+      <c r="E140">
         <v>31</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
         <v>230</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" t="s">
         <v>216</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141">
         <v>61</v>
       </c>
-      <c r="D141" s="0" t="n">
+      <c r="D141">
         <v>26</v>
       </c>
-      <c r="E141" s="0" t="n">
+      <c r="E141">
         <v>30</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>231</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" t="s">
         <v>225</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142">
         <v>59</v>
       </c>
-      <c r="D142" s="0" t="n">
+      <c r="D142">
         <v>22</v>
       </c>
-      <c r="E142" s="0" t="n">
+      <c r="E142">
         <v>30</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
         <v>232</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" t="s">
         <v>233</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143">
         <v>59</v>
       </c>
-      <c r="D143" s="0" t="n">
+      <c r="D143">
         <v>24</v>
       </c>
-      <c r="E143" s="0" t="n">
+      <c r="E143">
         <v>28</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
         <v>234</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" t="s">
         <v>28</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144">
         <v>57</v>
       </c>
-      <c r="D144" s="0" t="n">
+      <c r="D144">
         <v>21</v>
       </c>
-      <c r="E144" s="0" t="n">
+      <c r="E144">
         <v>29</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
         <v>235</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" t="s">
         <v>236</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145">
         <v>61</v>
       </c>
-      <c r="D145" s="0" t="n">
+      <c r="D145">
         <v>26</v>
       </c>
-      <c r="E145" s="0" t="n">
+      <c r="E145">
         <v>29</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
         <v>237</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146">
         <v>67</v>
       </c>
-      <c r="D146" s="0" t="n">
+      <c r="D146">
         <v>23</v>
       </c>
-      <c r="E146" s="0" t="n">
+      <c r="E146">
         <v>36</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
         <v>239</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" t="s">
         <v>212</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147">
         <v>65</v>
       </c>
-      <c r="D147" s="0" t="n">
+      <c r="D147">
         <v>24</v>
       </c>
-      <c r="E147" s="0" t="n">
+      <c r="E147">
         <v>34</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
         <v>240</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" t="s">
         <v>241</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148">
         <v>61</v>
       </c>
-      <c r="D148" s="0" t="n">
+      <c r="D148">
         <v>24</v>
       </c>
-      <c r="E148" s="0" t="n">
+      <c r="E148">
         <v>30</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
         <v>242</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" t="s">
         <v>243</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149">
         <v>64</v>
       </c>
-      <c r="D149" s="0" t="n">
+      <c r="D149">
         <v>23</v>
       </c>
-      <c r="E149" s="0" t="n">
+      <c r="E149">
         <v>32</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
         <v>244</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" t="s">
         <v>214</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150">
         <v>62</v>
       </c>
-      <c r="D150" s="0" t="n">
+      <c r="D150">
         <v>26</v>
       </c>
-      <c r="E150" s="0" t="n">
+      <c r="E150">
         <v>30</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
         <v>245</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" t="s">
         <v>236</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151">
         <v>61</v>
       </c>
-      <c r="D151" s="0" t="n">
+      <c r="D151">
         <v>22</v>
       </c>
-      <c r="E151" s="0" t="n">
+      <c r="E151">
         <v>32</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
         <v>246</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" t="s">
         <v>216</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152">
         <v>62</v>
       </c>
-      <c r="D152" s="0" t="n">
+      <c r="D152">
         <v>25</v>
       </c>
-      <c r="E152" s="0" t="n">
+      <c r="E152">
         <v>31</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
         <v>247</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" t="s">
         <v>220</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153">
         <v>65</v>
       </c>
-      <c r="D153" s="0" t="n">
+      <c r="D153">
         <v>29</v>
       </c>
-      <c r="E153" s="0" t="n">
+      <c r="E153">
         <v>31</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
         <v>248</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" t="s">
         <v>249</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154">
         <v>60</v>
       </c>
-      <c r="D154" s="0" t="n">
+      <c r="D154">
         <v>24</v>
       </c>
-      <c r="E154" s="0" t="n">
+      <c r="E154">
         <v>27</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
         <v>250</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" t="s">
         <v>214</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155">
         <v>62</v>
       </c>
-      <c r="D155" s="0" t="n">
+      <c r="D155">
         <v>32</v>
       </c>
-      <c r="E155" s="0" t="n">
+      <c r="E155">
         <v>25</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
         <v>251</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" t="s">
         <v>14</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156">
         <v>60</v>
       </c>
-      <c r="D156" s="0" t="n">
+      <c r="D156">
         <v>29</v>
       </c>
-      <c r="E156" s="0" t="n">
+      <c r="E156">
         <v>25</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
         <v>252</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" t="s">
         <v>253</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157">
         <v>55</v>
       </c>
-      <c r="D157" s="0" t="n">
+      <c r="D157">
         <v>25</v>
       </c>
-      <c r="E157" s="0" t="n">
+      <c r="E157">
         <v>24</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
         <v>254</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" t="s">
         <v>241</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158">
         <v>61</v>
       </c>
-      <c r="D158" s="0" t="n">
+      <c r="D158">
         <v>30</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158">
         <v>23</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
         <v>255</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" t="s">
         <v>214</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159">
         <v>62</v>
       </c>
-      <c r="D159" s="0" t="n">
+      <c r="D159">
         <v>32</v>
       </c>
-      <c r="E159" s="0" t="n">
+      <c r="E159">
         <v>25</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
         <v>256</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" t="s">
         <v>257</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160">
         <v>56</v>
       </c>
-      <c r="D160" s="0" t="n">
+      <c r="D160">
         <v>28</v>
       </c>
-      <c r="E160" s="0" t="n">
+      <c r="E160">
         <v>22</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
         <v>258</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" t="s">
         <v>259</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161">
         <v>4</v>
       </c>
-      <c r="D161" s="0" t="n">
+      <c r="D161">
         <v>2</v>
       </c>
-      <c r="E161" s="0" t="n">
+      <c r="E161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
         <v>260</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" t="s">
         <v>177</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162">
         <v>46</v>
       </c>
-      <c r="D162" s="0" t="n">
+      <c r="D162">
         <v>21</v>
       </c>
-      <c r="E162" s="0" t="n">
+      <c r="E162">
         <v>21</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
         <v>261</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" t="s">
         <v>262</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163">
         <v>58</v>
       </c>
-      <c r="D163" s="0" t="n">
+      <c r="D163">
         <v>28</v>
       </c>
-      <c r="E163" s="0" t="n">
+      <c r="E163">
         <v>24</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
         <v>263</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" t="s">
         <v>241</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164">
         <v>61</v>
       </c>
-      <c r="D164" s="0" t="n">
+      <c r="D164">
         <v>29</v>
       </c>
-      <c r="E164" s="0" t="n">
+      <c r="E164">
         <v>26</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
         <v>264</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" t="s">
         <v>214</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165">
         <v>62</v>
       </c>
-      <c r="D165" s="0" t="n">
+      <c r="D165">
         <v>26</v>
       </c>
-      <c r="E165" s="0" t="n">
+      <c r="E165">
         <v>29</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
         <v>265</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" t="s">
         <v>249</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166">
         <v>60</v>
       </c>
-      <c r="D166" s="0" t="n">
+      <c r="D166">
         <v>25</v>
       </c>
-      <c r="E166" s="0" t="n">
+      <c r="E166">
         <v>29</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
         <v>266</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" t="s">
         <v>267</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167">
         <v>56</v>
       </c>
-      <c r="D167" s="0" t="n">
+      <c r="D167">
         <v>24</v>
       </c>
-      <c r="E167" s="0" t="n">
+      <c r="E167">
         <v>26</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
         <v>268</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168">
         <v>58</v>
       </c>
-      <c r="D168" s="0" t="n">
+      <c r="D168">
         <v>28</v>
       </c>
-      <c r="E168" s="0" t="n">
+      <c r="E168">
         <v>24</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
         <v>269</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" t="s">
         <v>249</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169">
         <v>60</v>
       </c>
-      <c r="D169" s="0" t="n">
+      <c r="D169">
         <v>25</v>
       </c>
-      <c r="E169" s="0" t="n">
+      <c r="E169">
         <v>27</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
         <v>270</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" t="s">
         <v>233</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170">
         <v>59</v>
       </c>
-      <c r="D170" s="0" t="n">
+      <c r="D170">
         <v>25</v>
       </c>
-      <c r="E170" s="0" t="n">
+      <c r="E170">
         <v>29</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
         <v>271</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" t="s">
         <v>236</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171">
         <v>61</v>
       </c>
-      <c r="D171" s="0" t="n">
+      <c r="D171">
         <v>26</v>
       </c>
-      <c r="E171" s="0" t="n">
+      <c r="E171">
         <v>29</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
         <v>272</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" t="s">
         <v>273</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172">
         <v>58</v>
       </c>
-      <c r="D172" s="0" t="n">
+      <c r="D172">
         <v>28</v>
       </c>
-      <c r="E172" s="0" t="n">
+      <c r="E172">
         <v>26</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
         <v>274</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" t="s">
         <v>214</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173">
         <v>62</v>
       </c>
-      <c r="D173" s="0" t="n">
+      <c r="D173">
         <v>29</v>
       </c>
-      <c r="E173" s="0" t="n">
+      <c r="E173">
         <v>24</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
         <v>275</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" t="s">
         <v>253</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174">
         <v>55</v>
       </c>
-      <c r="D174" s="0" t="n">
+      <c r="D174">
         <v>20</v>
       </c>
-      <c r="E174" s="0" t="n">
+      <c r="E174">
         <v>30</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
         <v>276</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" t="s">
         <v>249</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175">
         <v>60</v>
       </c>
-      <c r="D175" s="0" t="n">
+      <c r="D175">
         <v>24</v>
       </c>
-      <c r="E175" s="0" t="n">
+      <c r="E175">
         <v>29</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
         <v>277</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" t="s">
         <v>22</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176">
         <v>55</v>
       </c>
-      <c r="D176" s="0" t="n">
+      <c r="D176">
         <v>21</v>
       </c>
-      <c r="E176" s="0" t="n">
+      <c r="E176">
         <v>28</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
         <v>278</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" t="s">
         <v>14</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177">
         <v>59</v>
       </c>
-      <c r="D177" s="0" t="n">
+      <c r="D177">
         <v>24</v>
       </c>
-      <c r="E177" s="0" t="n">
+      <c r="E177">
         <v>28</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
         <v>279</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" t="s">
         <v>233</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178">
         <v>59</v>
       </c>
-      <c r="D178" s="0" t="n">
+      <c r="D178">
         <v>22</v>
       </c>
-      <c r="E178" s="0" t="n">
+      <c r="E178">
         <v>31</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
         <v>280</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" t="s">
         <v>267</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179">
         <v>56</v>
       </c>
-      <c r="D179" s="0" t="n">
+      <c r="D179">
         <v>20</v>
       </c>
-      <c r="E179" s="0" t="n">
+      <c r="E179">
         <v>28</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
         <v>281</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" t="s">
         <v>28</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180">
         <v>57</v>
       </c>
-      <c r="D180" s="0" t="n">
+      <c r="D180">
         <v>21</v>
       </c>
-      <c r="E180" s="0" t="n">
+      <c r="E180">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
